--- a/input/IT/DatabaseCountryYear.xlsx
+++ b/input/IT/DatabaseCountryYear.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="6">
   <si>
     <t>Country</t>
   </si>
@@ -24,6 +24,12 @@
   </si>
   <si>
     <t>2011</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2013</t>
   </si>
 </sst>
 </file>
